--- a/biology/Zoologie/Acrantophis_dumerili/Acrantophis_dumerili.xlsx
+++ b/biology/Zoologie/Acrantophis_dumerili/Acrantophis_dumerili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acrantophis dumerili  est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acrantophis dumerili  est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1]. 
-Guibé, en 1958[2] avait affirmé sa présence à La Réunion, selon Vences &amp; Glaw, 2004 cela était une erreur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. 
+Guibé, en 1958 avait affirmé sa présence à La Réunion, selon Vences &amp; Glaw, 2004 cela était une erreur.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ deux mètres de long.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jan, 1860 : Iconographie générale des ophidiens. Tome Premier, J. B. Balliere et Fils, Paris (texte intégral).</t>
         </is>
